--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/receptacle_tests.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/receptacle_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA942517-3335-442D-8380-971B223A952A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B603C23-04AE-47F7-8C5E-CCD4B8C562FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
   <sheets>
     <sheet name="TCDs" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="137">
   <si>
     <t>pass</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>unit_type</t>
+  </si>
+  <si>
+    <t>electric_power</t>
   </si>
 </sst>
 </file>
@@ -766,35 +772,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="709">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="277">
     <dxf>
       <fill>
         <patternFill>
@@ -1071,1295 +1049,77 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3921,1784 +2681,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6040,13 +3022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5244E5-8827-4076-8B5C-DD03095105A1}">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,15 +3038,16 @@
     <col min="3" max="3" width="50.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="39.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="47.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="39.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -6081,74 +3064,77 @@
         <v>89</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="3" t="str">
-        <f>"rule-"&amp;G2&amp;"-"&amp;G3&amp;G4</f>
+      <c r="H1" s="3" t="str">
+        <f>"rule-"&amp;H2&amp;"-"&amp;H3&amp;H4</f>
         <v>rule-12-1a</v>
       </c>
-      <c r="H1" s="3" t="str">
-        <f t="shared" ref="H1:I1" si="0">"rule-"&amp;H2&amp;"-"&amp;H3&amp;H4</f>
+      <c r="I1" s="3" t="str">
+        <f t="shared" ref="I1:J1" si="0">"rule-"&amp;I2&amp;"-"&amp;I3&amp;I4</f>
         <v>rule-12-1b</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="J1" s="3" t="str">
         <f t="shared" si="0"/>
         <v>rule-12-1c</v>
       </c>
-      <c r="J1" s="3" t="str">
-        <f>"rule-"&amp;J2&amp;"-"&amp;J3&amp;J4</f>
+      <c r="K1" s="3" t="str">
+        <f>"rule-"&amp;K2&amp;"-"&amp;K3&amp;K4</f>
         <v>rule-12-2a</v>
       </c>
-      <c r="K1" s="3" t="str">
-        <f t="shared" ref="K1" si="1">"rule-"&amp;K2&amp;"-"&amp;K3&amp;K4</f>
+      <c r="L1" s="3" t="str">
+        <f t="shared" ref="L1" si="1">"rule-"&amp;L2&amp;"-"&amp;L3&amp;L4</f>
         <v>rule-12-2b</v>
       </c>
-      <c r="L1" s="3" t="str">
-        <f t="shared" ref="L1:M1" si="2">"rule-"&amp;L2&amp;"-"&amp;L3&amp;L4</f>
+      <c r="M1" s="3" t="str">
+        <f t="shared" ref="M1:N1" si="2">"rule-"&amp;M2&amp;"-"&amp;M3&amp;M4</f>
         <v>rule-12-2c</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="N1" s="3" t="str">
         <f t="shared" si="2"/>
         <v>rule-12-3a</v>
       </c>
-      <c r="N1" s="3" t="str">
-        <f t="shared" ref="N1" si="3">"rule-"&amp;N2&amp;"-"&amp;N3&amp;N4</f>
+      <c r="O1" s="3" t="str">
+        <f t="shared" ref="O1" si="3">"rule-"&amp;O2&amp;"-"&amp;O3&amp;O4</f>
         <v>rule-12-3b</v>
       </c>
-      <c r="O1" s="3" t="str">
-        <f t="shared" ref="O1" si="4">"rule-"&amp;O2&amp;"-"&amp;O3&amp;O4</f>
+      <c r="P1" s="3" t="str">
+        <f t="shared" ref="P1" si="4">"rule-"&amp;P2&amp;"-"&amp;P3&amp;P4</f>
         <v>rule-12-4a</v>
       </c>
-      <c r="P1" s="3" t="str">
-        <f t="shared" ref="P1" si="5">"rule-"&amp;P2&amp;"-"&amp;P3&amp;P4</f>
+      <c r="Q1" s="3" t="str">
+        <f t="shared" ref="Q1" si="5">"rule-"&amp;Q2&amp;"-"&amp;Q3&amp;Q4</f>
         <v>rule-12-4b</v>
       </c>
-      <c r="Q1" s="3" t="str">
-        <f t="shared" ref="Q1" si="6">"rule-"&amp;Q2&amp;"-"&amp;Q3&amp;Q4</f>
+      <c r="R1" s="3" t="str">
+        <f t="shared" ref="R1" si="6">"rule-"&amp;R2&amp;"-"&amp;R3&amp;R4</f>
         <v>rule-12-5a</v>
       </c>
-      <c r="R1" s="3" t="str">
-        <f t="shared" ref="R1" si="7">"rule-"&amp;R2&amp;"-"&amp;R3&amp;R4</f>
+      <c r="S1" s="3" t="str">
+        <f t="shared" ref="S1" si="7">"rule-"&amp;S2&amp;"-"&amp;S3&amp;S4</f>
         <v>rule-12-5b</v>
       </c>
-      <c r="S1" s="3" t="str">
-        <f t="shared" ref="S1" si="8">"rule-"&amp;S2&amp;"-"&amp;S3&amp;S4</f>
+      <c r="T1" s="3" t="str">
+        <f t="shared" ref="T1" si="8">"rule-"&amp;T2&amp;"-"&amp;T3&amp;T4</f>
         <v>rule-12-6a</v>
       </c>
-      <c r="T1" s="3" t="str">
-        <f t="shared" ref="T1:V1" si="9">"rule-"&amp;T2&amp;"-"&amp;T3&amp;T4</f>
+      <c r="U1" s="3" t="str">
+        <f t="shared" ref="U1:W1" si="9">"rule-"&amp;U2&amp;"-"&amp;U3&amp;U4</f>
         <v>rule-12-6b</v>
       </c>
-      <c r="U1" s="3" t="str">
+      <c r="V1" s="3" t="str">
         <f t="shared" si="9"/>
         <v>rule-12-7a</v>
       </c>
-      <c r="V1" s="3" t="str">
+      <c r="W1" s="3" t="str">
         <f t="shared" si="9"/>
         <v>rule-12-7b</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -6157,9 +3143,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="1">
-        <v>12</v>
-      </c>
+      <c r="G2" s="31"/>
       <c r="H2" s="1">
         <v>12</v>
       </c>
@@ -6205,8 +3189,11 @@
       <c r="V2" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
@@ -6215,9 +3202,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
+      <c r="G3" s="31"/>
       <c r="H3" s="1">
         <v>1</v>
       </c>
@@ -6225,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
@@ -6234,37 +3219,40 @@
         <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
       </c>
       <c r="O3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P3" s="1">
         <v>4</v>
       </c>
       <c r="Q3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3" s="1">
         <v>5</v>
       </c>
       <c r="S3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3" s="1">
         <v>6</v>
       </c>
       <c r="U3" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V3" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -6273,56 +3261,57 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -6331,56 +3320,57 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>132</v>
       </c>
@@ -6389,56 +3379,57 @@
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
@@ -6449,21 +3440,19 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="32"/>
+      <c r="H7" s="17" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="H7" s="17" t="str">
-        <f t="shared" ref="H7:I7" si="10">"true"</f>
+      <c r="I7" s="17" t="str">
+        <f t="shared" ref="I7:J7" si="10">"true"</f>
         <v>true</v>
       </c>
-      <c r="I7" s="17" t="str">
+      <c r="J7" s="17" t="str">
         <f t="shared" si="10"/>
         <v>true</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="K7" s="17" t="s">
         <v>59</v>
       </c>
@@ -6500,8 +3489,11 @@
       <c r="V7" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>40</v>
       </c>
@@ -6512,12 +3504,10 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
         <v>59</v>
       </c>
@@ -6530,11 +3520,11 @@
       <c r="N8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
         <v>59</v>
       </c>
@@ -6544,10 +3534,13 @@
       <c r="T8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="U8" s="4"/>
+      <c r="U8" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>40</v>
       </c>
@@ -6558,41 +3551,42 @@
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="28" t="str">
+      <c r="G9" s="33"/>
+      <c r="H9" s="28" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="H9" s="28" t="str">
-        <f t="shared" ref="H9:I9" si="11">"true"</f>
+      <c r="I9" s="28" t="str">
+        <f t="shared" ref="I9:J9" si="11">"true"</f>
         <v>true</v>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="J9" s="28" t="str">
         <f t="shared" si="11"/>
         <v>true</v>
       </c>
-      <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
-        <v>59</v>
-      </c>
+      <c r="O9" s="28"/>
       <c r="P9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="28"/>
+      <c r="Q9" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
-      <c r="U9" s="28" t="s">
-        <v>59</v>
-      </c>
+      <c r="U9" s="28"/>
       <c r="V9" s="28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
@@ -6607,9 +3601,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
+      <c r="G10" s="32"/>
       <c r="H10" s="1">
         <v>0</v>
       </c>
@@ -6655,8 +3647,11 @@
       <c r="V10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -6671,9 +3666,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="G11" s="32"/>
       <c r="H11" s="1" t="s">
         <v>94</v>
       </c>
@@ -6719,8 +3712,11 @@
       <c r="V11" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
@@ -6735,9 +3731,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="G12" s="32"/>
       <c r="H12" s="1" t="s">
         <v>59</v>
       </c>
@@ -6783,8 +3777,11 @@
       <c r="V12" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
@@ -6799,11 +3796,12 @@
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="32"/>
-      <c r="V13" s="1" t="s">
+      <c r="G13" s="32"/>
+      <c r="W13" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -6818,9 +3816,7 @@
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
+      <c r="G14" s="32"/>
       <c r="H14" s="1">
         <v>0</v>
       </c>
@@ -6866,8 +3862,11 @@
       <c r="V14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -6882,9 +3881,7 @@
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="G15" s="32"/>
       <c r="H15" s="1" t="s">
         <v>130</v>
       </c>
@@ -6930,8 +3927,11 @@
       <c r="V15" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
@@ -6946,9 +3946,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
+      <c r="G16" s="32"/>
       <c r="H16" s="1">
         <v>0</v>
       </c>
@@ -6994,8 +3992,11 @@
       <c r="V16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
@@ -7010,9 +4011,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="G17" s="32"/>
       <c r="H17" s="1" t="s">
         <v>97</v>
       </c>
@@ -7058,8 +4057,11 @@
       <c r="V17" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
@@ -7074,9 +4076,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
+      <c r="G18" s="32"/>
       <c r="H18" s="1">
         <v>0</v>
       </c>
@@ -7122,8 +4122,11 @@
       <c r="V18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
@@ -7138,9 +4141,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G19" s="32"/>
       <c r="H19" s="1" t="s">
         <v>98</v>
       </c>
@@ -7186,8 +4187,11 @@
       <c r="V19" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
@@ -7202,19 +4206,17 @@
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="1">
+      <c r="G20" s="32"/>
+      <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>1</v>
       </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1">
+      <c r="P20" s="1">
         <v>1</v>
       </c>
       <c r="R20" s="1">
@@ -7232,8 +4234,11 @@
       <c r="V20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
@@ -7248,19 +4253,17 @@
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="32"/>
+      <c r="H21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>102</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -7278,8 +4281,11 @@
       <c r="V21" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
@@ -7294,20 +4300,21 @@
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="1">
+      <c r="G22" s="32"/>
+      <c r="H22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>2</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>2</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
@@ -7322,20 +4329,21 @@
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
@@ -7350,14 +4358,15 @@
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="1">
+      <c r="G24" s="32"/>
+      <c r="H24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>40</v>
       </c>
@@ -7372,14 +4381,15 @@
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>40</v>
       </c>
@@ -7394,17 +4404,18 @@
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="32"/>
-      <c r="Q26" s="1">
+      <c r="G26" s="32"/>
+      <c r="R26" s="1">
         <v>1</v>
       </c>
-      <c r="S26" s="1">
+      <c r="T26" s="1">
         <v>1</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>40</v>
       </c>
@@ -7419,17 +4430,18 @@
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="32"/>
-      <c r="Q27" s="1" t="s">
+      <c r="G27" s="32"/>
+      <c r="R27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>40</v>
       </c>
@@ -7444,16 +4456,19 @@
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>0.75</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>40</v>
       </c>
@@ -7468,11 +4483,12 @@
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="32"/>
-      <c r="S29" s="1" t="s">
+      <c r="G29" s="32"/>
+      <c r="T29" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
@@ -7487,17 +4503,18 @@
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="32"/>
-      <c r="Q30" s="1" t="s">
+      <c r="G30" s="32"/>
+      <c r="R30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="V30" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>40</v>
       </c>
@@ -7508,8 +4525,9 @@
       <c r="D31" s="12"/>
       <c r="E31" s="11"/>
       <c r="F31" s="32"/>
-    </row>
-    <row r="32" spans="1:22" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>40</v>
       </c>
@@ -7520,7 +4538,7 @@
       <c r="D32" s="27"/>
       <c r="E32" s="26"/>
       <c r="F32" s="35"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
@@ -7536,8 +4554,9 @@
       <c r="T32" s="28"/>
       <c r="U32" s="28"/>
       <c r="V32" s="28"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="28"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
@@ -7552,26 +4571,27 @@
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="32"/>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
+      <c r="G33" s="32"/>
       <c r="I33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="1">
+      <c r="J33" s="1">
         <v>1</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
       </c>
-      <c r="N33" s="1">
+      <c r="M33" s="1">
         <v>1</v>
       </c>
-      <c r="P33" s="1">
+      <c r="O33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
@@ -7586,26 +4606,27 @@
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="G34" s="32"/>
       <c r="I34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>102</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>36</v>
       </c>
@@ -7620,26 +4641,27 @@
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="32"/>
-      <c r="H35" s="1">
-        <v>2</v>
-      </c>
+      <c r="G35" s="32"/>
       <c r="I35" s="1">
         <v>2</v>
       </c>
-      <c r="K35" s="1">
+      <c r="J35" s="1">
         <v>2</v>
       </c>
       <c r="L35" s="1">
         <v>2</v>
       </c>
-      <c r="N35" s="1">
+      <c r="M35" s="1">
         <v>2</v>
       </c>
-      <c r="P35" s="1">
+      <c r="O35" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>36</v>
       </c>
@@ -7654,26 +4676,27 @@
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="G36" s="32"/>
       <c r="I36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
@@ -7688,14 +4711,15 @@
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="32"/>
-      <c r="I37" s="1">
+      <c r="G37" s="32"/>
+      <c r="J37" s="1">
         <v>3</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
@@ -7710,14 +4734,15 @@
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="32"/>
-      <c r="I38" s="1" t="s">
+      <c r="G38" s="32"/>
+      <c r="J38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>36</v>
       </c>
@@ -7732,17 +4757,18 @@
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="32"/>
-      <c r="R39" s="1">
+      <c r="G39" s="32"/>
+      <c r="S39" s="1">
         <v>1</v>
       </c>
-      <c r="T39" s="1">
+      <c r="U39" s="1">
         <v>1</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>36</v>
       </c>
@@ -7757,17 +4783,18 @@
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="32"/>
-      <c r="R40" s="1" t="s">
+      <c r="G40" s="32"/>
+      <c r="S40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="U40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="W40" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>36</v>
       </c>
@@ -7782,16 +4809,19 @@
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="R41" s="1">
+      <c r="S41" s="1">
         <v>0.75</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>36</v>
       </c>
@@ -7806,11 +4836,12 @@
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="32"/>
-      <c r="T42" s="1" t="s">
+      <c r="G42" s="32"/>
+      <c r="U42" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>36</v>
       </c>
@@ -7825,32 +4856,34 @@
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="32"/>
-      <c r="R43" s="1" t="s">
+      <c r="G43" s="32"/>
+      <c r="S43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="W43" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="F44" s="32"/>
-    </row>
-    <row r="45" spans="1:22" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
       <c r="E45" s="26"/>
       <c r="F45" s="35"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
@@ -7866,8 +4899,9 @@
       <c r="T45" s="28"/>
       <c r="U45" s="28"/>
       <c r="V45" s="28"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="28"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>36</v>
       </c>
@@ -7882,17 +4916,18 @@
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="32"/>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
+      <c r="G46" s="32"/>
       <c r="L46" s="1">
         <v>1</v>
       </c>
-      <c r="N46" s="1">
+      <c r="M46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>36</v>
       </c>
@@ -7907,17 +4942,18 @@
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="32"/>
-      <c r="K47" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="G47" s="32"/>
       <c r="L47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>36</v>
       </c>
@@ -7932,17 +4968,18 @@
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="32"/>
-      <c r="K48" s="1">
-        <v>2</v>
-      </c>
+      <c r="G48" s="32"/>
       <c r="L48" s="1">
         <v>2</v>
       </c>
-      <c r="N48" s="1">
+      <c r="M48" s="1">
+        <v>2</v>
+      </c>
+      <c r="O48" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>36</v>
       </c>
@@ -7957,17 +4994,18 @@
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="32"/>
-      <c r="K49" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="G49" s="32"/>
       <c r="L49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>36</v>
       </c>
@@ -7982,11 +5020,12 @@
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="32"/>
-      <c r="K50" s="1">
+      <c r="G50" s="32"/>
+      <c r="L50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>36</v>
       </c>
@@ -8001,11 +5040,12 @@
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="32"/>
-      <c r="K51" s="1" t="s">
+      <c r="G51" s="32"/>
+      <c r="L51" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>36</v>
       </c>
@@ -8020,14 +5060,15 @@
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="32"/>
-      <c r="R52" s="1">
+      <c r="G52" s="32"/>
+      <c r="S52" s="1">
         <v>1</v>
       </c>
-      <c r="T52" s="1">
+      <c r="U52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>36</v>
       </c>
@@ -8042,14 +5083,15 @@
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="32"/>
-      <c r="R53" s="1" t="s">
+      <c r="G53" s="32"/>
+      <c r="S53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="U53" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -8064,13 +5106,16 @@
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="R54" s="1">
+      <c r="S54" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>36</v>
       </c>
@@ -8085,11 +5130,12 @@
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="32"/>
-      <c r="T55" s="1" t="s">
+      <c r="G55" s="32"/>
+      <c r="U55" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>36</v>
       </c>
@@ -8104,29 +5150,31 @@
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="32"/>
-      <c r="R56" s="1" t="s">
+      <c r="G56" s="32"/>
+      <c r="S56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="U56" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="11"/>
       <c r="F57" s="32"/>
-    </row>
-    <row r="58" spans="1:22" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="32"/>
+    </row>
+    <row r="58" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
       <c r="D58" s="27"/>
       <c r="E58" s="26"/>
       <c r="F58" s="35"/>
-      <c r="G58" s="28"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
       <c r="J58" s="28"/>
@@ -8142,8 +5190,9 @@
       <c r="T58" s="28"/>
       <c r="U58" s="28"/>
       <c r="V58" s="28"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W58" s="28"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>36</v>
       </c>
@@ -8158,17 +5207,18 @@
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="32"/>
-      <c r="H59" s="1">
-        <v>1</v>
-      </c>
+      <c r="G59" s="32"/>
       <c r="I59" s="1">
         <v>1</v>
       </c>
-      <c r="P59" s="1">
+      <c r="J59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>36</v>
       </c>
@@ -8183,17 +5233,18 @@
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="32"/>
-      <c r="H60" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="G60" s="32"/>
       <c r="I60" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>36</v>
       </c>
@@ -8208,17 +5259,18 @@
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="32"/>
-      <c r="H61" s="1">
-        <v>2</v>
-      </c>
+      <c r="G61" s="32"/>
       <c r="I61" s="1">
         <v>2</v>
       </c>
-      <c r="P61" s="1">
+      <c r="J61" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>36</v>
       </c>
@@ -8233,17 +5285,18 @@
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="32"/>
-      <c r="H62" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="G62" s="32"/>
       <c r="I62" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="J62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>36</v>
       </c>
@@ -8258,11 +5311,12 @@
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="32"/>
-      <c r="H63" s="1">
+      <c r="G63" s="32"/>
+      <c r="I63" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>36</v>
       </c>
@@ -8277,11 +5331,12 @@
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="32"/>
-      <c r="H64" s="1" t="s">
+      <c r="G64" s="32"/>
+      <c r="I64" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>36</v>
       </c>
@@ -8296,11 +5351,12 @@
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="32"/>
-      <c r="V65" s="1">
+      <c r="G65" s="32"/>
+      <c r="W65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>36</v>
       </c>
@@ -8315,11 +5371,12 @@
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="32"/>
-      <c r="V66" s="1" t="s">
+      <c r="G66" s="32"/>
+      <c r="W66" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>36</v>
       </c>
@@ -8334,13 +5391,16 @@
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="V67" s="1">
+      <c r="W67" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>36</v>
       </c>
@@ -8355,11 +5415,12 @@
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="32"/>
-      <c r="V68" s="1" t="s">
+      <c r="G68" s="32"/>
+      <c r="W68" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>36</v>
       </c>
@@ -8374,1157 +5435,1337 @@
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="32"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G69" s="32"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="11"/>
       <c r="F70" s="32"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G70" s="32"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="11"/>
       <c r="F71" s="32"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G71" s="32"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F75" s="9"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A59:E64 A65:B69 A5:E45">
-    <cfRule type="expression" dxfId="454" priority="306">
+    <cfRule type="expression" dxfId="276" priority="340">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D30">
-    <cfRule type="expression" dxfId="453" priority="270">
+    <cfRule type="expression" dxfId="275" priority="304">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E31">
-    <cfRule type="expression" dxfId="452" priority="269">
+    <cfRule type="expression" dxfId="274" priority="303">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:E51 A59:E60 A61:D61 E61:E64 A52:B56">
-    <cfRule type="expression" dxfId="451" priority="262">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:T14 G30:T38 U29:V38 G16:T19 G15:V15 G20:P20">
-    <cfRule type="expression" dxfId="450" priority="261">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59:T64 G24:T25 G39:S41 G26:R29 T26:T29 G43:S45 G42:Q42 S42 G46:J51 M46:S51">
-    <cfRule type="expression" dxfId="449" priority="260">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:T23">
-    <cfRule type="expression" dxfId="448" priority="248">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:T22 G21:P21">
-    <cfRule type="expression" dxfId="447" priority="259">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:J51 M51:S51">
-    <cfRule type="expression" dxfId="446" priority="252">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:T34 G36:T38 G43:S45 G59:T61 G39:S40 G42:Q42 S42 G46:J51 M46:S51">
-    <cfRule type="expression" dxfId="445" priority="256">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:T9">
-    <cfRule type="expression" dxfId="444" priority="257">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64:T64 G38:T38 G46:J47 G50:J51 G59:T61 M50:S51 M46:S47">
-    <cfRule type="expression" dxfId="443" priority="255">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59:T64">
-    <cfRule type="expression" dxfId="442" priority="254">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49:J49 M49:S49">
-    <cfRule type="expression" dxfId="441" priority="253">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:T35 G38:T38 G41:S41">
-    <cfRule type="expression" dxfId="440" priority="249">
+    <cfRule type="expression" dxfId="273" priority="296">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:U14 H30:U38 V29:W38 H16:U19 H15:W15 H20:Q20">
+    <cfRule type="expression" dxfId="272" priority="295">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:U64 H24:U25 H39:T41 H26:S29 U26:U29 H43:T45 H42:R42 T42 H46:K51 N46:T51">
+    <cfRule type="expression" dxfId="271" priority="294">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:U23">
+    <cfRule type="expression" dxfId="270" priority="282">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:U22 H21:Q21">
+    <cfRule type="expression" dxfId="269" priority="293">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:K51 N51:T51">
+    <cfRule type="expression" dxfId="268" priority="286">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:U34 H36:U38 H43:T45 H59:U61 H39:T40 H42:R42 T42 H46:K51 N46:T51">
+    <cfRule type="expression" dxfId="267" priority="290">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:U9">
+    <cfRule type="expression" dxfId="266" priority="291">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:U64 H38:U38 H46:K47 H50:K51 H59:U61 N50:T51 N46:T47">
+    <cfRule type="expression" dxfId="265" priority="289">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:U64">
+    <cfRule type="expression" dxfId="264" priority="288">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:K49 N49:T49">
+    <cfRule type="expression" dxfId="263" priority="287">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:U35 H38:U38 H41:T41">
+    <cfRule type="expression" dxfId="262" priority="283">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:E45">
-    <cfRule type="expression" dxfId="439" priority="247">
+    <cfRule type="expression" dxfId="261" priority="281">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:D45">
-    <cfRule type="expression" dxfId="438" priority="246">
+    <cfRule type="expression" dxfId="260" priority="280">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E45">
-    <cfRule type="expression" dxfId="437" priority="245">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:S41 G43:S45 G42:Q42 S42">
-    <cfRule type="expression" dxfId="436" priority="244">
+    <cfRule type="expression" dxfId="259" priority="279">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:T41 H43:T45 H42:R42 T42">
+    <cfRule type="expression" dxfId="258" priority="278">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:E54 C55 E55">
-    <cfRule type="expression" dxfId="435" priority="243">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:Q55 S52:S54 S55:T55">
-    <cfRule type="expression" dxfId="434" priority="242">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:Q53 G55:Q55 S52:S53 S55:T55">
-    <cfRule type="expression" dxfId="433" priority="241">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54:Q54 S54">
-    <cfRule type="expression" dxfId="432" priority="240">
+    <cfRule type="expression" dxfId="257" priority="277">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:R55 T52:T54 T55:U55">
+    <cfRule type="expression" dxfId="256" priority="276">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:R53 H55:R55 T52:T53 T55:U55">
+    <cfRule type="expression" dxfId="255" priority="275">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:R54 T54">
+    <cfRule type="expression" dxfId="254" priority="274">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:E54 C55 E55">
-    <cfRule type="expression" dxfId="431" priority="239">
+    <cfRule type="expression" dxfId="253" priority="273">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="430" priority="238">
+    <cfRule type="expression" dxfId="252" priority="272">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="429" priority="237">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:Q55 S52:S54 S55:T55">
-    <cfRule type="expression" dxfId="428" priority="236">
+    <cfRule type="expression" dxfId="251" priority="271">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:R55 T52:T54 T55:U55">
+    <cfRule type="expression" dxfId="250" priority="270">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:E67 C68 E68">
-    <cfRule type="expression" dxfId="427" priority="235">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65:T68">
-    <cfRule type="expression" dxfId="426" priority="234">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65:T66 G68:T68">
-    <cfRule type="expression" dxfId="425" priority="233">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67:T67">
-    <cfRule type="expression" dxfId="424" priority="232">
+    <cfRule type="expression" dxfId="249" priority="269">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:U68">
+    <cfRule type="expression" dxfId="248" priority="268">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:U66 H68:U68">
+    <cfRule type="expression" dxfId="247" priority="267">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:U67">
+    <cfRule type="expression" dxfId="246" priority="266">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:E67 C68 E68">
-    <cfRule type="expression" dxfId="423" priority="231">
+    <cfRule type="expression" dxfId="245" priority="265">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="422" priority="230">
+    <cfRule type="expression" dxfId="244" priority="264">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="421" priority="229">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65:T68">
-    <cfRule type="expression" dxfId="420" priority="228">
+    <cfRule type="expression" dxfId="243" priority="263">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:U68">
+    <cfRule type="expression" dxfId="242" priority="262">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:E58 E56">
-    <cfRule type="expression" dxfId="419" priority="227">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57:T58 G56:Q56 S56">
-    <cfRule type="expression" dxfId="418" priority="226">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57:T58 G56:Q56 S56">
-    <cfRule type="expression" dxfId="417" priority="225">
+    <cfRule type="expression" dxfId="241" priority="261">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:U58 H56:R56 T56">
+    <cfRule type="expression" dxfId="240" priority="260">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:U58 H56:R56 T56">
+    <cfRule type="expression" dxfId="239" priority="259">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:E58 E56">
-    <cfRule type="expression" dxfId="416" priority="224">
+    <cfRule type="expression" dxfId="238" priority="258">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:D58">
-    <cfRule type="expression" dxfId="415" priority="223">
+    <cfRule type="expression" dxfId="237" priority="257">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E58">
-    <cfRule type="expression" dxfId="414" priority="222">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57:T58 G56:Q56 S56">
-    <cfRule type="expression" dxfId="413" priority="221">
+    <cfRule type="expression" dxfId="236" priority="256">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:U58 H56:R56 T56">
+    <cfRule type="expression" dxfId="235" priority="255">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:E71 E69">
-    <cfRule type="expression" dxfId="412" priority="220">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69:T71">
-    <cfRule type="expression" dxfId="411" priority="219">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69:T71">
-    <cfRule type="expression" dxfId="410" priority="218">
+    <cfRule type="expression" dxfId="234" priority="254">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:U71">
+    <cfRule type="expression" dxfId="233" priority="253">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:U71">
+    <cfRule type="expression" dxfId="232" priority="252">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:E71 E69">
-    <cfRule type="expression" dxfId="409" priority="217">
+    <cfRule type="expression" dxfId="231" priority="251">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:D71">
-    <cfRule type="expression" dxfId="408" priority="216">
+    <cfRule type="expression" dxfId="230" priority="250">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E71">
-    <cfRule type="expression" dxfId="407" priority="215">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69:T71">
-    <cfRule type="expression" dxfId="406" priority="214">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R52:R54">
-    <cfRule type="expression" dxfId="405" priority="213">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R52:R53">
-    <cfRule type="expression" dxfId="404" priority="212">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R54">
-    <cfRule type="expression" dxfId="403" priority="211">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R52:R54">
-    <cfRule type="expression" dxfId="402" priority="210">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T39:T41 T44:T51">
-    <cfRule type="expression" dxfId="401" priority="209">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T51">
-    <cfRule type="expression" dxfId="400" priority="205">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T44:T51 T39:T40">
-    <cfRule type="expression" dxfId="399" priority="208">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T46:T47 T50:T51">
-    <cfRule type="expression" dxfId="398" priority="207">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T49">
-    <cfRule type="expression" dxfId="397" priority="206">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T41">
-    <cfRule type="expression" dxfId="396" priority="204">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T39:T41 T44:T45">
-    <cfRule type="expression" dxfId="395" priority="203">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T52:T54">
-    <cfRule type="expression" dxfId="394" priority="202">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T52:T53">
-    <cfRule type="expression" dxfId="393" priority="201">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T54">
-    <cfRule type="expression" dxfId="392" priority="200">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T52:T54">
-    <cfRule type="expression" dxfId="391" priority="199">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T42">
-    <cfRule type="expression" dxfId="390" priority="198">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T42">
-    <cfRule type="expression" dxfId="389" priority="197">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T42">
-    <cfRule type="expression" dxfId="388" priority="196">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S28">
-    <cfRule type="expression" dxfId="387" priority="195">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S27">
-    <cfRule type="expression" dxfId="386" priority="194">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
-    <cfRule type="expression" dxfId="385" priority="193">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S28">
-    <cfRule type="expression" dxfId="384" priority="192">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
-    <cfRule type="expression" dxfId="383" priority="191">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
-    <cfRule type="expression" dxfId="382" priority="190">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
-    <cfRule type="expression" dxfId="381" priority="189">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U31 U10:U14 U16:U19">
-    <cfRule type="expression" dxfId="380" priority="188">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U59:U64 U24:U25">
-    <cfRule type="expression" dxfId="379" priority="187">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
-    <cfRule type="expression" dxfId="378" priority="177">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U22">
-    <cfRule type="expression" dxfId="377" priority="186">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U33:U34 U36:U38 U59:U61">
-    <cfRule type="expression" dxfId="376" priority="183">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U9">
-    <cfRule type="expression" dxfId="375" priority="184">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U64 U38 U59:U61">
-    <cfRule type="expression" dxfId="374" priority="182">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U59:U64">
-    <cfRule type="expression" dxfId="373" priority="181">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U35 U38">
-    <cfRule type="expression" dxfId="372" priority="178">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U55">
-    <cfRule type="expression" dxfId="371" priority="176">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U55">
-    <cfRule type="expression" dxfId="370" priority="175">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U55">
-    <cfRule type="expression" dxfId="369" priority="174">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U65:U68">
-    <cfRule type="expression" dxfId="368" priority="173">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U65:U66 U68">
-    <cfRule type="expression" dxfId="367" priority="172">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U67">
-    <cfRule type="expression" dxfId="366" priority="171">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U65:U68">
-    <cfRule type="expression" dxfId="365" priority="170">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U56:U58">
-    <cfRule type="expression" dxfId="364" priority="169">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U56:U58">
-    <cfRule type="expression" dxfId="363" priority="168">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U56:U58">
-    <cfRule type="expression" dxfId="362" priority="167">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U69:U71">
-    <cfRule type="expression" dxfId="361" priority="166">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U69:U71">
-    <cfRule type="expression" dxfId="360" priority="165">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U69:U71">
-    <cfRule type="expression" dxfId="359" priority="164">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U39:U41 U43:U51">
-    <cfRule type="expression" dxfId="358" priority="163">
+    <cfRule type="expression" dxfId="229" priority="249">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:U71">
+    <cfRule type="expression" dxfId="228" priority="248">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S52:S54">
+    <cfRule type="expression" dxfId="227" priority="247">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S52:S53">
+    <cfRule type="expression" dxfId="226" priority="246">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S54">
+    <cfRule type="expression" dxfId="225" priority="245">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S52:S54">
+    <cfRule type="expression" dxfId="224" priority="244">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U39:U41 U44:U51">
+    <cfRule type="expression" dxfId="223" priority="243">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U51">
-    <cfRule type="expression" dxfId="357" priority="159">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U43:U51 U39:U40">
-    <cfRule type="expression" dxfId="356" priority="162">
+    <cfRule type="expression" dxfId="222" priority="239">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44:U51 U39:U40">
+    <cfRule type="expression" dxfId="221" priority="242">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U46:U47 U50:U51">
-    <cfRule type="expression" dxfId="355" priority="161">
+    <cfRule type="expression" dxfId="220" priority="241">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49">
-    <cfRule type="expression" dxfId="354" priority="160">
+    <cfRule type="expression" dxfId="219" priority="240">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41">
-    <cfRule type="expression" dxfId="353" priority="158">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U39:U41 U43:U45">
-    <cfRule type="expression" dxfId="352" priority="157">
+    <cfRule type="expression" dxfId="218" priority="238">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U39:U41 U44:U45">
+    <cfRule type="expression" dxfId="217" priority="237">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52:U54">
-    <cfRule type="expression" dxfId="351" priority="156">
+    <cfRule type="expression" dxfId="216" priority="236">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52:U53">
-    <cfRule type="expression" dxfId="350" priority="155">
+    <cfRule type="expression" dxfId="215" priority="235">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54">
-    <cfRule type="expression" dxfId="349" priority="154">
+    <cfRule type="expression" dxfId="214" priority="234">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52:U54">
-    <cfRule type="expression" dxfId="348" priority="153">
+    <cfRule type="expression" dxfId="213" priority="233">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="expression" dxfId="347" priority="152">
+    <cfRule type="expression" dxfId="212" priority="232">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="expression" dxfId="346" priority="151">
+    <cfRule type="expression" dxfId="211" priority="231">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="expression" dxfId="345" priority="150">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U26:U28">
-    <cfRule type="expression" dxfId="344" priority="149">
+    <cfRule type="expression" dxfId="210" priority="230">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26:T28">
+    <cfRule type="expression" dxfId="209" priority="229">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26:T27">
+    <cfRule type="expression" dxfId="208" priority="228">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="expression" dxfId="207" priority="227">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26:T28">
+    <cfRule type="expression" dxfId="206" priority="226">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="expression" dxfId="205" priority="225">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="expression" dxfId="204" priority="224">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="expression" dxfId="203" priority="223">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31 V10:V14 V16:V19">
-    <cfRule type="expression" dxfId="343" priority="148">
+    <cfRule type="expression" dxfId="202" priority="222">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V59:V64 V24:V25">
-    <cfRule type="expression" dxfId="342" priority="147">
+    <cfRule type="expression" dxfId="201" priority="221">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="341" priority="137">
+    <cfRule type="expression" dxfId="200" priority="211">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="340" priority="146">
+    <cfRule type="expression" dxfId="199" priority="220">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V33:V34 V36:V38 V59:V61">
-    <cfRule type="expression" dxfId="339" priority="143">
+    <cfRule type="expression" dxfId="198" priority="217">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:V9">
-    <cfRule type="expression" dxfId="338" priority="144">
+    <cfRule type="expression" dxfId="197" priority="218">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V64 V38 V59:V61">
-    <cfRule type="expression" dxfId="337" priority="142">
+    <cfRule type="expression" dxfId="196" priority="216">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V59:V64">
-    <cfRule type="expression" dxfId="336" priority="141">
+    <cfRule type="expression" dxfId="195" priority="215">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35 V38">
-    <cfRule type="expression" dxfId="335" priority="138">
+    <cfRule type="expression" dxfId="194" priority="212">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V55">
+    <cfRule type="expression" dxfId="193" priority="210">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V55">
+    <cfRule type="expression" dxfId="192" priority="209">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V55">
+    <cfRule type="expression" dxfId="191" priority="208">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V65:V68">
+    <cfRule type="expression" dxfId="190" priority="207">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V65:V66 V68">
+    <cfRule type="expression" dxfId="189" priority="206">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V67">
+    <cfRule type="expression" dxfId="188" priority="205">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V65:V68">
+    <cfRule type="expression" dxfId="187" priority="204">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V56:V58">
-    <cfRule type="expression" dxfId="334" priority="129">
+    <cfRule type="expression" dxfId="186" priority="203">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V56:V58">
-    <cfRule type="expression" dxfId="333" priority="128">
+    <cfRule type="expression" dxfId="185" priority="202">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V56:V58">
-    <cfRule type="expression" dxfId="332" priority="127">
+    <cfRule type="expression" dxfId="184" priority="201">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V69:V71">
-    <cfRule type="expression" dxfId="331" priority="126">
+    <cfRule type="expression" dxfId="183" priority="200">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V69:V71">
-    <cfRule type="expression" dxfId="330" priority="125">
+    <cfRule type="expression" dxfId="182" priority="199">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V69:V71">
-    <cfRule type="expression" dxfId="329" priority="124">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V39:V42 V44:V51">
-    <cfRule type="expression" dxfId="328" priority="108">
+    <cfRule type="expression" dxfId="181" priority="198">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V39:V41 V43:V51">
+    <cfRule type="expression" dxfId="180" priority="197">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V51">
+    <cfRule type="expression" dxfId="179" priority="193">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V43:V51 V39:V40">
+    <cfRule type="expression" dxfId="178" priority="196">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V46:V47 V50:V51">
+    <cfRule type="expression" dxfId="177" priority="195">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V49">
+    <cfRule type="expression" dxfId="176" priority="194">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V41">
+    <cfRule type="expression" dxfId="175" priority="192">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V39:V41 V43:V45">
+    <cfRule type="expression" dxfId="174" priority="191">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V52:V54">
+    <cfRule type="expression" dxfId="173" priority="190">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V52:V53">
+    <cfRule type="expression" dxfId="172" priority="189">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V54">
+    <cfRule type="expression" dxfId="171" priority="188">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V52:V54">
+    <cfRule type="expression" dxfId="170" priority="187">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V42">
+    <cfRule type="expression" dxfId="169" priority="186">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V42">
+    <cfRule type="expression" dxfId="168" priority="185">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V42">
+    <cfRule type="expression" dxfId="167" priority="184">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26:V28">
-    <cfRule type="expression" dxfId="327" priority="109">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V42 V39:V40 V44:V51">
-    <cfRule type="expression" dxfId="326" priority="107">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V46:V47 V50:V51">
-    <cfRule type="expression" dxfId="325" priority="106">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V49">
-    <cfRule type="expression" dxfId="324" priority="105">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V51">
-    <cfRule type="expression" dxfId="323" priority="104">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V41">
-    <cfRule type="expression" dxfId="322" priority="103">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V39:V42 V44:V45">
-    <cfRule type="expression" dxfId="321" priority="102">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V52:V54">
-    <cfRule type="expression" dxfId="320" priority="101">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V52:V53">
-    <cfRule type="expression" dxfId="319" priority="100">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V54">
-    <cfRule type="expression" dxfId="318" priority="99">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V52:V54">
-    <cfRule type="expression" dxfId="317" priority="98">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R42">
-    <cfRule type="expression" dxfId="316" priority="97">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R55">
-    <cfRule type="expression" dxfId="315" priority="96">
+    <cfRule type="expression" dxfId="166" priority="183">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W31 W10:W14 W16:W19">
+    <cfRule type="expression" dxfId="165" priority="182">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W59:W64 W24:W25">
+    <cfRule type="expression" dxfId="164" priority="181">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="expression" dxfId="163" priority="171">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W22">
+    <cfRule type="expression" dxfId="162" priority="180">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W33:W34 W36:W38 W59:W61">
+    <cfRule type="expression" dxfId="161" priority="177">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5:W9">
+    <cfRule type="expression" dxfId="160" priority="178">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W64 W38 W59:W61">
+    <cfRule type="expression" dxfId="159" priority="176">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W59:W64">
+    <cfRule type="expression" dxfId="158" priority="175">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W35 W38">
+    <cfRule type="expression" dxfId="157" priority="172">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W56:W58">
+    <cfRule type="expression" dxfId="156" priority="163">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W56:W58">
+    <cfRule type="expression" dxfId="155" priority="162">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W56:W58">
+    <cfRule type="expression" dxfId="154" priority="161">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W69:W71">
+    <cfRule type="expression" dxfId="153" priority="160">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W69:W71">
+    <cfRule type="expression" dxfId="152" priority="159">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W69:W71">
+    <cfRule type="expression" dxfId="151" priority="158">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W39:W42 W44:W51">
+    <cfRule type="expression" dxfId="150" priority="142">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W26:W28">
+    <cfRule type="expression" dxfId="149" priority="143">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W42 W39:W40 W44:W51">
+    <cfRule type="expression" dxfId="148" priority="141">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W46:W47 W50:W51">
+    <cfRule type="expression" dxfId="147" priority="140">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W49">
+    <cfRule type="expression" dxfId="146" priority="139">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W51">
+    <cfRule type="expression" dxfId="145" priority="138">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W41">
+    <cfRule type="expression" dxfId="144" priority="137">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W39:W42 W44:W45">
+    <cfRule type="expression" dxfId="143" priority="136">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W52:W54">
+    <cfRule type="expression" dxfId="142" priority="135">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W52:W53">
+    <cfRule type="expression" dxfId="141" priority="134">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W54">
+    <cfRule type="expression" dxfId="140" priority="133">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W52:W54">
+    <cfRule type="expression" dxfId="139" priority="132">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S42">
+    <cfRule type="expression" dxfId="138" priority="131">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S55">
+    <cfRule type="expression" dxfId="137" priority="130">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:D43">
-    <cfRule type="expression" dxfId="314" priority="95">
+    <cfRule type="expression" dxfId="136" priority="129">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:D56">
-    <cfRule type="expression" dxfId="313" priority="94">
+    <cfRule type="expression" dxfId="135" priority="128">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:D56">
-    <cfRule type="expression" dxfId="312" priority="93">
+    <cfRule type="expression" dxfId="134" priority="127">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:D69">
-    <cfRule type="expression" dxfId="311" priority="92">
+    <cfRule type="expression" dxfId="133" priority="126">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:D69">
-    <cfRule type="expression" dxfId="310" priority="91">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R56">
-    <cfRule type="expression" dxfId="309" priority="90">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R56">
-    <cfRule type="expression" dxfId="308" priority="89">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R56">
-    <cfRule type="expression" dxfId="307" priority="88">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="expression" dxfId="306" priority="87">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="expression" dxfId="305" priority="86">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="expression" dxfId="304" priority="85">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T43">
-    <cfRule type="expression" dxfId="303" priority="84">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T43">
-    <cfRule type="expression" dxfId="302" priority="83">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T43">
-    <cfRule type="expression" dxfId="301" priority="82">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V43">
-    <cfRule type="expression" dxfId="300" priority="81">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V43">
-    <cfRule type="expression" dxfId="299" priority="80">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V43">
-    <cfRule type="expression" dxfId="298" priority="79">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V55">
-    <cfRule type="expression" dxfId="297" priority="78">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V55">
-    <cfRule type="expression" dxfId="296" priority="77">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V55">
-    <cfRule type="expression" dxfId="295" priority="76">
+    <cfRule type="expression" dxfId="132" priority="125">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56">
+    <cfRule type="expression" dxfId="131" priority="124">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56">
+    <cfRule type="expression" dxfId="130" priority="123">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56">
+    <cfRule type="expression" dxfId="129" priority="122">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U56">
+    <cfRule type="expression" dxfId="128" priority="121">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U56">
+    <cfRule type="expression" dxfId="127" priority="120">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U56">
+    <cfRule type="expression" dxfId="126" priority="119">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="expression" dxfId="125" priority="118">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="expression" dxfId="124" priority="117">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43">
+    <cfRule type="expression" dxfId="123" priority="116">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="expression" dxfId="122" priority="115">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="expression" dxfId="121" priority="114">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="expression" dxfId="120" priority="113">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W55">
+    <cfRule type="expression" dxfId="119" priority="112">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W55">
+    <cfRule type="expression" dxfId="118" priority="111">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W55">
+    <cfRule type="expression" dxfId="117" priority="110">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="294" priority="75">
+    <cfRule type="expression" dxfId="116" priority="109">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="293" priority="74">
+    <cfRule type="expression" dxfId="115" priority="108">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="292" priority="73">
+    <cfRule type="expression" dxfId="114" priority="107">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="291" priority="72">
+    <cfRule type="expression" dxfId="113" priority="106">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="290" priority="71">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="expression" dxfId="289" priority="70">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
-    <cfRule type="expression" dxfId="288" priority="69">
+    <cfRule type="expression" dxfId="112" priority="105">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="expression" dxfId="287" priority="68">
+    <cfRule type="expression" dxfId="111" priority="104">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="expression" dxfId="286" priority="67">
+    <cfRule type="expression" dxfId="110" priority="103">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="expression" dxfId="285" priority="66">
+    <cfRule type="expression" dxfId="109" priority="102">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21">
-    <cfRule type="expression" dxfId="284" priority="65">
+    <cfRule type="expression" dxfId="108" priority="101">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="expression" dxfId="283" priority="64">
+    <cfRule type="expression" dxfId="107" priority="100">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="expression" dxfId="282" priority="63">
+    <cfRule type="expression" dxfId="106" priority="99">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="expression" dxfId="281" priority="62">
+    <cfRule type="expression" dxfId="105" priority="98">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21">
-    <cfRule type="expression" dxfId="280" priority="61">
+    <cfRule type="expression" dxfId="104" priority="97">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="expression" dxfId="279" priority="60">
+    <cfRule type="expression" dxfId="103" priority="96">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="expression" dxfId="278" priority="59">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V65:V67">
-    <cfRule type="expression" dxfId="277" priority="58">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V65:V66">
-    <cfRule type="expression" dxfId="276" priority="57">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V67">
-    <cfRule type="expression" dxfId="275" priority="56">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V65:V67">
-    <cfRule type="expression" dxfId="274" priority="55">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V68">
-    <cfRule type="expression" dxfId="273" priority="54">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V68">
-    <cfRule type="expression" dxfId="272" priority="53">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V68">
-    <cfRule type="expression" dxfId="271" priority="52">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:L51">
-    <cfRule type="expression" dxfId="270" priority="51">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:L51">
-    <cfRule type="expression" dxfId="269" priority="47">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:L51">
-    <cfRule type="expression" dxfId="268" priority="50">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:L47 K50:L51">
-    <cfRule type="expression" dxfId="267" priority="49">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:L49">
-    <cfRule type="expression" dxfId="266" priority="48">
+    <cfRule type="expression" dxfId="102" priority="95">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="expression" dxfId="101" priority="94">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21">
+    <cfRule type="expression" dxfId="100" priority="93">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W65:W67">
+    <cfRule type="expression" dxfId="99" priority="92">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W65:W66">
+    <cfRule type="expression" dxfId="98" priority="91">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W67">
+    <cfRule type="expression" dxfId="97" priority="90">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W65:W67">
+    <cfRule type="expression" dxfId="96" priority="89">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W68">
+    <cfRule type="expression" dxfId="95" priority="88">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W68">
+    <cfRule type="expression" dxfId="94" priority="87">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W68">
+    <cfRule type="expression" dxfId="93" priority="86">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:M51">
+    <cfRule type="expression" dxfId="92" priority="85">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:M51">
+    <cfRule type="expression" dxfId="91" priority="81">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:M51">
+    <cfRule type="expression" dxfId="90" priority="84">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:M47 L50:M51">
+    <cfRule type="expression" dxfId="89" priority="83">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M49">
+    <cfRule type="expression" dxfId="88" priority="82">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:G71 G5 G10:G19">
+    <cfRule type="expression" dxfId="87" priority="80">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="86" priority="79">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G9">
+    <cfRule type="expression" dxfId="85" priority="78">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G24">
+    <cfRule type="expression" dxfId="84" priority="77">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="83" priority="76">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="expression" dxfId="82" priority="65">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G26">
+    <cfRule type="expression" dxfId="81" priority="75">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="expression" dxfId="80" priority="74">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="expression" dxfId="79" priority="73">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G39">
+    <cfRule type="expression" dxfId="78" priority="72">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="expression" dxfId="77" priority="71">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G34">
+    <cfRule type="expression" dxfId="76" priority="68">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="75" priority="64">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="expression" dxfId="74" priority="67">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="expression" dxfId="73" priority="66">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="72" priority="63">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" dxfId="71" priority="61">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="expression" dxfId="70" priority="62">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="expression" dxfId="69" priority="59">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:G36">
+    <cfRule type="expression" dxfId="68" priority="60">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="expression" dxfId="67" priority="58">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
+    <cfRule type="expression" dxfId="66" priority="52">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G48">
+    <cfRule type="expression" dxfId="65" priority="53">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" dxfId="64" priority="50">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:G53">
+    <cfRule type="expression" dxfId="63" priority="51">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G55">
+    <cfRule type="expression" dxfId="62" priority="49">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G50">
+    <cfRule type="expression" dxfId="61" priority="48">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:G57">
+    <cfRule type="expression" dxfId="60" priority="47">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" dxfId="59" priority="46">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="expression" dxfId="58" priority="45">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="expression" dxfId="57" priority="44">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G71">
+    <cfRule type="expression" dxfId="56" priority="43">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="expression" dxfId="55" priority="42">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="expression" dxfId="54" priority="40">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F71 F5 F10:F19">
-    <cfRule type="expression" dxfId="265" priority="46">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="264" priority="45">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="expression" dxfId="263" priority="44">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24">
-    <cfRule type="expression" dxfId="262" priority="43">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="261" priority="42">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="expression" dxfId="260" priority="31">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F26">
-    <cfRule type="expression" dxfId="259" priority="41">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="258" priority="40">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="257" priority="39">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F39">
-    <cfRule type="expression" dxfId="256" priority="38">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="255" priority="37">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F34">
-    <cfRule type="expression" dxfId="254" priority="34">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="expression" dxfId="253" priority="30">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="expression" dxfId="252" priority="33">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="expression" dxfId="251" priority="32">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="250" priority="29">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="expression" dxfId="249" priority="27">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="expression" dxfId="248" priority="28">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="247" priority="25">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F36">
-    <cfRule type="expression" dxfId="246" priority="26">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="245" priority="24">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F21">
-    <cfRule type="expression" dxfId="244" priority="18">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F48">
-    <cfRule type="expression" dxfId="243" priority="19">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="242" priority="16">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F53">
-    <cfRule type="expression" dxfId="241" priority="17">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F55">
-    <cfRule type="expression" dxfId="240" priority="15">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F50">
-    <cfRule type="expression" dxfId="239" priority="14">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F57">
-    <cfRule type="expression" dxfId="238" priority="13">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="expression" dxfId="237" priority="12">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="236" priority="11">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="235" priority="10">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F71">
-    <cfRule type="expression" dxfId="234" priority="9">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="233" priority="8">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="232" priority="6">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10680,77 +7921,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A41:D52 A24:C24 A5:D20 B53:B56">
-    <cfRule type="expression" dxfId="708" priority="20">
+    <cfRule type="expression" dxfId="53" priority="20">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:D36 B37:B40">
-    <cfRule type="expression" dxfId="707" priority="19">
+    <cfRule type="expression" dxfId="52" priority="19">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E20 E41:E52">
-    <cfRule type="expression" dxfId="706" priority="17">
+    <cfRule type="expression" dxfId="51" priority="17">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E36">
-    <cfRule type="expression" dxfId="705" priority="16">
+    <cfRule type="expression" dxfId="50" priority="16">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:D21 A22:C23 D22:D24">
-    <cfRule type="expression" dxfId="704" priority="12">
+    <cfRule type="expression" dxfId="49" priority="12">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="703" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="expression" dxfId="702" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40 C40">
-    <cfRule type="expression" dxfId="701" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A39 D38:D40 C38:C39 C37:D37">
-    <cfRule type="expression" dxfId="700" priority="7">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E38">
-    <cfRule type="expression" dxfId="699" priority="6">
+    <cfRule type="expression" dxfId="44" priority="6">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E40">
-    <cfRule type="expression" dxfId="698" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56 C56">
-    <cfRule type="expression" dxfId="697" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A55 D54:D56 C54:C55 C53:D53">
-    <cfRule type="expression" dxfId="696" priority="3">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="expression" dxfId="695" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:E56">
-    <cfRule type="expression" dxfId="694" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12231,17 +9472,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:D22 A37:D50">
-    <cfRule type="expression" dxfId="693" priority="5">
+    <cfRule type="expression" dxfId="38" priority="5">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:D34 A35:B36">
-    <cfRule type="expression" dxfId="692" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="expression" dxfId="691" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
